--- a/CustomAWOS/CustomAWOS/Project Outputs for CustomPFD/BOM.xlsx
+++ b/CustomAWOS/CustomAWOS/Project Outputs for CustomPFD/BOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="117">
   <si>
     <t>Line #</t>
   </si>
@@ -92,13 +92,31 @@
     <t>311-1344-1-ND</t>
   </si>
   <si>
+    <t>CAP_4.7uF_16V_0603</t>
+  </si>
+  <si>
+    <t>CAP CER 4.7UF 16V X6S 0603</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>GRM188C81C475KE11D</t>
+  </si>
+  <si>
+    <t>490-13362-1-ND</t>
+  </si>
+  <si>
     <t>CAP_0.1uF_16V_0603</t>
   </si>
   <si>
     <t>CAP CER 0.1UF 16V X7R 0603</t>
   </si>
   <si>
-    <t>C2, C3, C4, C5, C6, C7, C8, C9, C10</t>
+    <t>C3, C4, C5, C6, C7, C8, C9, C10</t>
   </si>
   <si>
     <t>CC0603KRX7R7BB104</t>
@@ -116,7 +134,7 @@
     <t>C11, C12</t>
   </si>
   <si>
-    <t>Sams</t>
+    <t>Samsung</t>
   </si>
   <si>
     <t>CL21B102KBANNNC</t>
@@ -158,13 +176,13 @@
     <t>VDMG10A0CT-ND</t>
   </si>
   <si>
-    <t>PIN_HEADER</t>
+    <t>PIN_HEADER_1X2</t>
   </si>
   <si>
     <t>Board Connector, 1 Contact(s), 1 Row(s), Male, Straight, Solder Terminal</t>
   </si>
   <si>
-    <t>J1, J2, J3, J6</t>
+    <t>J1, J2, J3, J4</t>
   </si>
   <si>
     <t>Sullins</t>
@@ -176,12 +194,6 @@
     <t>S1012EC-01-ND</t>
   </si>
   <si>
-    <t>PIN_HEADER_1X2</t>
-  </si>
-  <si>
-    <t>J4, J5</t>
-  </si>
-  <si>
     <t>Micro Type B</t>
   </si>
   <si>
@@ -191,12 +203,15 @@
     <t>P1</t>
   </si>
   <si>
-    <t>AMPHENOL ICC (FCI)</t>
+    <t>Amphenol ICC / FCI</t>
   </si>
   <si>
     <t>10118193-0001LF</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
     <t>609-4616-1-ND</t>
   </si>
   <si>
@@ -206,7 +221,7 @@
     <t>RES 120 OHM 5% 1/10W 0603</t>
   </si>
   <si>
-    <t>R1, R2, R3, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19, R20, R21, R22, R23, R24, R25, R26, R27, R28, R29, R30, R31, R32, R33, R34, R35, R36, R37, R38, R39, R40, R41</t>
+    <t>R1, R2, R3, R23</t>
   </si>
   <si>
     <t>RC0603JR-07120RL</t>
@@ -221,15 +236,33 @@
     <t>RES 4.7K OHM 5% 1/10W 0603</t>
   </si>
   <si>
-    <t>R4, R5, R6, R7, R8, R9</t>
-  </si>
-  <si>
-    <t>RC0603JR-074K7L</t>
+    <t>R4, R5, R6</t>
+  </si>
+  <si>
+    <t>Knowles Syfer</t>
+  </si>
+  <si>
+    <t>1825Y2000822FCR</t>
   </si>
   <si>
     <t>311-4.7KGRCT-ND</t>
   </si>
   <si>
+    <t>470R 1%</t>
+  </si>
+  <si>
+    <t>RES 470 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R7, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19, R20, R21, R22, R24, R25, R26, R27, R28, R29, R30, R31, R32, R33, R34, R35, R36, R37, R38</t>
+  </si>
+  <si>
+    <t>RC0603FR-07470RL</t>
+  </si>
+  <si>
+    <t>311-470HRCT-ND</t>
+  </si>
+  <si>
     <t>SW_TOGGLE_SPDT</t>
   </si>
   <si>
@@ -269,7 +302,7 @@
     <t>TESTPT</t>
   </si>
   <si>
-    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP14, TP15</t>
+    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13</t>
   </si>
   <si>
     <t>FT232RL</t>
@@ -290,63 +323,42 @@
     <t>768-1007-1-ND</t>
   </si>
   <si>
-    <t>LDO_3.3V_600mA</t>
-  </si>
-  <si>
-    <t>IC REG LINEAR 3.3V 600MA SOT25</t>
+    <t>ATMEGA328P-MN</t>
+  </si>
+  <si>
+    <t>RISC Microcontroller, 8-Bit, FLASH, AVR RISC CPU, 20MHz, CMOS, PQCC32</t>
   </si>
   <si>
     <t>U2</t>
   </si>
   <si>
-    <t>Diodes</t>
-  </si>
-  <si>
-    <t>AP2112K-3.3TRG1</t>
-  </si>
-  <si>
-    <t>AP2112K-3.3TRG1DICT-ND</t>
-  </si>
-  <si>
-    <t>STM32F446RET6</t>
-  </si>
-  <si>
-    <t>RISC Microcontroller, 32-Bit, FLASH, CORTEX-M4F CPU, 180MHz, CMOS, PQFP64</t>
+    <t>ATMEGA328P-MN-ND</t>
+  </si>
+  <si>
+    <t>MPL115A2</t>
+  </si>
+  <si>
+    <t>Absolute, 7.25Psi Min, 16.67Psi Max, Rectangular, Surface Mount</t>
   </si>
   <si>
     <t>U3</t>
   </si>
   <si>
-    <t>STMicroelectronics</t>
-  </si>
-  <si>
-    <t>497-15376-ND</t>
-  </si>
-  <si>
-    <t>MPL115A2</t>
-  </si>
-  <si>
-    <t>Absolute, 7.25Psi Min, 16.67Psi Max, Rectangular, Surface Mount</t>
+    <t>NXP USA</t>
+  </si>
+  <si>
+    <t>MPL115A2-ND</t>
+  </si>
+  <si>
+    <t>MPU-6050</t>
+  </si>
+  <si>
+    <t>Analog Circuit, 1 Func, CMOS</t>
   </si>
   <si>
     <t>U4</t>
   </si>
   <si>
-    <t>NXP USA</t>
-  </si>
-  <si>
-    <t>MPL115A2-ND</t>
-  </si>
-  <si>
-    <t>MPU-6050</t>
-  </si>
-  <si>
-    <t>Analog Circuit, 1 Func, CMOS</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
     <t>TDK InvenSense</t>
   </si>
   <si>
@@ -359,7 +371,7 @@
     <t>Seven Segment Decoder/Driver, 4000/14000/40000 Series, Configurable Output, CMOS, PDSO16</t>
   </si>
   <si>
-    <t>U6, U7</t>
+    <t>U5, U6</t>
   </si>
   <si>
     <t>Texas Instruments</t>
@@ -827,13 +839,13 @@
         <v>23</v>
       </c>
       <c r="E3" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>18</v>
@@ -842,39 +854,35 @@
         <v>19</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="4">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0.48</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -883,10 +891,10 @@
         <v>31</v>
       </c>
       <c r="K4" s="4">
-        <v>0.1</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="L4" s="4">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
@@ -903,7 +911,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>35</v>
@@ -921,10 +929,10 @@
         <v>37</v>
       </c>
       <c r="K5" s="4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L5" s="4">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
@@ -941,13 +949,13 @@
         <v>40</v>
       </c>
       <c r="E6" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>18</v>
@@ -956,39 +964,39 @@
         <v>19</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6" s="4">
-        <v>1.55</v>
+        <v>0.3</v>
       </c>
       <c r="L6" s="4">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="99.75" x14ac:dyDescent="0.45">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="4">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -997,10 +1005,10 @@
         <v>48</v>
       </c>
       <c r="K7" s="4">
-        <v>0.04</v>
+        <v>1.55</v>
       </c>
       <c r="L7" s="4">
-        <v>0.16</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="99.75" x14ac:dyDescent="0.45">
@@ -1011,19 +1019,19 @@
         <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>12</v>
@@ -1032,13 +1040,13 @@
         <v>19</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K8" s="4">
         <v>0.04</v>
       </c>
       <c r="L8" s="4">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="114" x14ac:dyDescent="0.45">
@@ -1046,31 +1054,31 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K9" s="4">
         <v>0.44</v>
@@ -1079,27 +1087,27 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E10" s="4">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>18</v>
@@ -1108,13 +1116,13 @@
         <v>19</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K10" s="4">
         <v>0.02</v>
       </c>
       <c r="L10" s="4">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
@@ -1122,31 +1130,31 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E11" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K11" s="4">
         <v>0.02</v>
@@ -1155,27 +1163,27 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E12" s="4">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>18</v>
@@ -1184,13 +1192,13 @@
         <v>19</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K12" s="4">
-        <v>1.94</v>
+        <v>2.4E-2</v>
       </c>
       <c r="L12" s="4">
-        <v>1.94</v>
+        <v>0.74399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
@@ -1198,122 +1206,122 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K13" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="4">
         <v>1.1200000000000001</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L14" s="4">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="4">
-        <v>15</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L15" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="57" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>18</v>
@@ -1322,41 +1330,37 @@
         <v>19</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="K16" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L16" s="4">
+        <v>4.5999999999999996</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="114" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1366,22 +1370,22 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>12</v>
@@ -1390,7 +1394,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K18" s="4">
         <v>7.73</v>
@@ -1404,22 +1408,22 @@
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>12</v>
@@ -1428,7 +1432,7 @@
         <v>19</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="4">
         <v>10.7</v>
@@ -1442,22 +1446,22 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>18</v>
@@ -1466,7 +1470,7 @@
         <v>19</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K20" s="4">
         <v>0.44</v>
@@ -1478,6 +1482,6 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup scale="37" orientation="landscape" blackAndWhite="1" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="41" orientation="landscape" blackAndWhite="1" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>